--- a/文档/转转卡/部署说明/部署文档.xlsx
+++ b/文档/转转卡/部署说明/部署文档.xlsx
@@ -140,15 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.17.3.42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_citycard
-citycard@2016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转转卡H5页面地址端口：9000
 转转卡接口平台端口：5001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +158,17 @@
   </si>
   <si>
     <t>172.17.1.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_citycard
+citycard@2016
+root
+wfpFAZtke0830axbd_rt!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.17.3.42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +545,7 @@
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -596,7 +598,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="3" t="s">
@@ -618,7 +620,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
@@ -634,13 +636,13 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="4" t="s">
@@ -656,18 +658,18 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="54" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -676,13 +678,13 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="3"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
